--- a/Indicadores sugeridos.xlsx
+++ b/Indicadores sugeridos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PROADESS" sheetId="1" state="visible" r:id="rId3"/>
@@ -300,7 +300,8 @@
     <t xml:space="preserve">Taxa de desmatamento/Incremento de desmatamento</t>
   </si>
   <si>
-    <t xml:space="preserve">BDQueimadas/INPE</t>
+    <t xml:space="preserve">Prodess/INPE 
+https://terrabrasilis.dpi.inpe.br/app/dashboard/deforestation/biomes/legal_amazon/increments</t>
   </si>
   <si>
     <t xml:space="preserve">Extremos de temperatura - calor, Inundações, Secas e estiagens, Poluição atmosférica</t>
@@ -445,9 +446,10 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +466,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.7999"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,28 +526,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,27 +559,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,47 +597,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Hyperlink 1" xfId="20"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF353535"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCAEEFB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAE3D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -877,187 +852,187 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="68.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="68.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1088,7 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B4" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
       <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
@@ -1096,182 +1071,182 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="76.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="34.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="45.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1302,320 +1277,320 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B5" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topRight" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="62.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="42.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="39.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="105.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="105.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1623,6 +1598,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://mapas.climaesaude.icict.fiocruz.br/"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://terrabrasilis.dpi.inpe.br/app/dashboard/deforestation/biomes/legal_amazon/increments"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
